--- a/biology/Botanique/Caille-lait_jaune/Caille-lait_jaune.xlsx
+++ b/biology/Botanique/Caille-lait_jaune/Caille-lait_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galium verum
 Le Gaillet jaune (Galium verum L.) est une plante herbacée vivace de la famille des Rubiacées.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante à tige quadrangulaire robuste, longue de 15 cm à 1 m. Feuilles verticillées par 6 à 9. Fleurs jaunes à 4 pétales en croix en inflorescences partant de l'aisselle des feuilles et les dépassant longuement. Elle possède des tiges souterraines traçantes.
 </t>
@@ -544,7 +558,9 @@
           <t>Cycle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante vivace hémicryptophyte.
 Floraison de mai à septembre.
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante très commune, se rencontrant dans les lisières, les haies, les broussailles, chemins, prairies et pentes jusqu'à 2 700 m.
 Aime les sols secs à mi-secs.
@@ -608,7 +626,9 @@
           <t>Usage alimentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante, comme son nom l'indique, aurait servi à faire du cailler le lait pour la production de fromage.
 </t>
@@ -639,16 +659,52 @@
           <t>Usage médicinal</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On lui attribue les propriétés médicinales suivantes :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>On lui attribue les propriétés médicinales suivantes :
 antispasmodique
 astringente
 diurétique
 vulnéraire
-cardio-protectrice (extrait méthanolique ; testé pour ses effets sur la récupération fonctionnelle et l'état redox du cœur de rat isolé après ischémie à raison de 500 mg/kg durant 28 jours. Les paramètres de la fonction cardiaque et les marqueurs du stress oxydatif étaient améliorés ; l'extrait ayant préservé « préservait la contractilité cardiaque, la fonction systolique et diastolique ainsi que les dommages structurels du cœur après L'ischémie. L'extrait de G. verum a en outre modulé l'activité des enzymes antioxydantes et atténué la production de pro-oxydants »[1].
-Décoction
-Mélanger 2 cuillerées à soupe de plante fleurie hachée à 1 litre d'eau.
+cardio-protectrice (extrait méthanolique ; testé pour ses effets sur la récupération fonctionnelle et l'état redox du cœur de rat isolé après ischémie à raison de 500 mg/kg durant 28 jours. Les paramètres de la fonction cardiaque et les marqueurs du stress oxydatif étaient améliorés ; l'extrait ayant préservé « préservait la contractilité cardiaque, la fonction systolique et diastolique ainsi que les dommages structurels du cœur après L'ischémie. L'extrait de G. verum a en outre modulé l'activité des enzymes antioxydantes et atténué la production de pro-oxydants ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caille-lait_jaune</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caille-lait_jaune</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usage médicinal</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Décoction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mélanger 2 cuillerées à soupe de plante fleurie hachée à 1 litre d'eau.
 Porter à ébullition pendant cinq minutes.
 Laisser tirer.
 En compresse pour la peau, cette décoction permet de soulager la douleur, les brûlures ou agit comme un astringent léger.
